--- a/TestData1/Demo1.xlsx
+++ b/TestData1/Demo1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5ad5c86426cfbd1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msakt\IdeaProjects\LearnTDDWebAutomationFramework\TestData1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{BAF00BAD-2895-4A86-B5DF-E8CB2A71A1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC90AAA3-A028-4EB3-A367-CC012429A3A4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21280A-0FB5-4A63-99D8-B093F9BA7873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="810" yWindow="3315" windowWidth="9630" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{89CB1B0E-6F51-4039-A965-F46D8C611BA5}"/>
+    <workbookView xWindow="2460" yWindow="5325" windowWidth="9630" windowHeight="11295" xr2:uid="{89CB1B0E-6F51-4039-A965-F46D8C611BA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hybrid(1)" sheetId="1" r:id="rId1"/>
-    <sheet name=" KeyWordDrivenNew" sheetId="3" r:id="rId2"/>
-    <sheet name="DataDriven" sheetId="2" r:id="rId3"/>
+    <sheet name="Products" sheetId="4" r:id="rId1"/>
+    <sheet name="Hybrid(1)" sheetId="1" r:id="rId2"/>
+    <sheet name=" KeyWordDrivenNew" sheetId="3" r:id="rId3"/>
+    <sheet name="DataDriven" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Expected Text</t>
   </si>
@@ -175,13 +176,28 @@
   </si>
   <si>
     <t>irin786@gmail.com</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>tide pods</t>
+  </si>
+  <si>
+    <t>ladies t-shirts</t>
+  </si>
+  <si>
+    <t>baby boy clothes</t>
+  </si>
+  <si>
+    <t>toy box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +212,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,10 +256,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -552,6 +577,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDE73EB-1053-41FA-B8E7-193BFA0E5422}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D707A80-241D-41A2-903B-0CDF730B7770}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -559,7 +628,7 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
@@ -567,7 +636,7 @@
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -587,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -607,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -627,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -647,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -667,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -687,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -712,22 +781,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137D60D-14DF-4090-9A6E-EFB5CA9EB44C}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -744,7 +813,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -758,7 +827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -775,7 +844,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -789,7 +858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -806,7 +875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -820,7 +889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -845,13 +914,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5128BD-5FFB-4426-86D5-1CCE31BFDB06}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
